--- a/Data/Summary.xlsx
+++ b/Data/Summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natasya/Desktop/Analysis Projects/Pewlett-Hackard-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6E2112-5CA8-AA4E-9E64-C1BEA64233E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189A964-F458-D745-AFAC-7EF1B64893BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34220" yWindow="2040" windowWidth="27240" windowHeight="15240" xr2:uid="{68F6413C-8541-814C-BEA9-25043D2CBC41}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27240" windowHeight="15240" xr2:uid="{68F6413C-8541-814C-BEA9-25043D2CBC41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>title</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>mentorship</t>
+  </si>
+  <si>
+    <t>All Engineers</t>
+  </si>
+  <si>
+    <t>All Staffs</t>
+  </si>
+  <si>
+    <t>Ratio staff / mentor</t>
   </si>
 </sst>
 </file>
@@ -78,8 +87,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -137,16 +146,26 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -463,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D13742-48E4-9142-8B3F-5C4E3C03AD09}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,26 +494,30 @@
     <col min="2" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,8 +534,12 @@
         <f>B2/D2</f>
         <v>0.34226602590209332</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="6">
+        <f>(D2-C2-B2)/C2</f>
+        <v>135.20481927710844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -529,8 +556,12 @@
         <f t="shared" ref="E3:E8" si="0">B3/D3</f>
         <v>0.34446015800253582</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F9" si="1">(D3-C3-B3)/C3</f>
+        <v>186.35191637630663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -547,8 +578,12 @@
         <f t="shared" si="0"/>
         <v>0.45902591743859533</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>58.017605633802816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -565,8 +600,12 @@
         <f t="shared" si="0"/>
         <v>0.47962861396223461</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>29.39588100686499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -583,8 +622,12 @@
         <f t="shared" si="0"/>
         <v>0.37345499792617171</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>97.090909090909093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -601,8 +644,12 @@
         <f t="shared" si="0"/>
         <v>0.49080267558528429</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>36.285714285714285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -619,24 +666,107 @@
         <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
         <f>SUM(B2:B8)</f>
         <v>90398</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>SUM(C2:C8)</f>
         <v>1549</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>SUM(D2:D8)</f>
         <v>240124</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>B9/D9</f>
         <v>0.37646382702270492</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>95.659780503550678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
+        <f>B2+B4+B7</f>
+        <v>45397</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:D11" si="2">C2+C4+C7</f>
+        <v>748</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="2"/>
+        <v>120510</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11:E13" si="3">B11/D11</f>
+        <v>0.37670732719276406</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11:F13" si="4">(D11-C11-B11)/C11</f>
+        <v>99.418449197860966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
+        <f>B3+B5+B6+B8</f>
+        <v>45001</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" ref="C12:D12" si="5">C3+C5+C6+C8</f>
+        <v>801</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="5"/>
+        <v>119614</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.37621850285083686</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="4"/>
+        <v>92.149812734082403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9">
+        <f>SUM(B11:B12)</f>
+        <v>90398</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13:D13" si="6">SUM(C11:C12)</f>
+        <v>1549</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="6"/>
+        <v>240124</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.37646382702270492</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="4"/>
+        <v>95.659780503550678</v>
       </c>
     </row>
   </sheetData>
